--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_40.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_40.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,626 +488,660 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_124</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_129</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.1714285714285714</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['F:min/C', 'C', 'F:min/C']]</t>
-        </is>
+          <t>jaah_6</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_170</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.06361746361746362</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:maj', 'F:min']]</t>
+          <t>[['Bb:7', 'Eb', 'Eb'], ['Eb', 'Bb:7', 'Eb']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(48.0, 52.2)]</t>
+          <t>[['D:7', 'G:maj', 'G:maj'], ['G:maj', 'D:7/C', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(0.78, 5.26)]</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:02:55.570000', '0:02:59.380000'), ('0:00:14.300000', '0:00:15.210000')]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[('0:00:06.120000', '0:00:11.620000'), ('0:01:12.520000', '0:01:23.280000')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_0</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_143</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['B:min', 'B:7', 'E:maj/B', 'E:min/B', 'B:maj', 'B:min', 'F#:maj', 'B:min', 'B:7', 'E:min/B', 'F#:7/B', 'B:min', 'E:min/B', 'B:min', 'D:maj/A', 'E:min/G', 'D:maj/F#', 'A:7', 'D:maj', 'B:min', 'B:7/A', 'E:maj/G#', 'A:(3,5,b7,b9)/G', 'D:maj/F#', 'F#:(3,5,b7,b9)/E', 'G:(3,5)', 'B:min/F#', 'F#:7', 'G:(3,5)', 'B:min/F#', 'F#:7', 'B:min', 'B:7', 'E:maj', 'E:min', 'B:maj', 'B:min/B', 'F#:maj', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_182</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>isophonics_96</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.425</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['B:min', 'B:7', 'E:maj/B', 'E:min/B', 'B:maj', 'B:min', 'F#:maj', 'B:min', 'B:7', 'E:min/B', 'F#:7/B', 'B:min', 'E:min/B', 'B:min', 'D:maj/A', 'E:min/G', 'D:maj/F#', 'A:7', 'D:maj', 'B:min', 'B:7/A', 'E:maj/G#', 'A:(3,5,b7,b9)/G', 'D:maj/F#', 'F#:(3,5,b7,b9)/E', 'G:(3,5)', 'B:min/F#', 'F#:7', 'G:(3,5)', 'B:min/F#', 'F#:7', 'B:min', 'B:7', 'E:maj', 'E:min', 'B:maj', 'B:min/B', 'F#:maj', 'B:min']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(0.78, 96.78)]</t>
+          <t>[['D:maj', 'G:maj', 'D:maj']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(1.66, 97.0)]</t>
+          <t>[('0:02:34.020000', '0:02:39.240000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>[('0:00:11.384000', '0:00:18.318000')]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>jaah_44</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1863636363636363</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['Ab:7', 'Db', 'Db']]</t>
-        </is>
+          <t>schubert-winterreise_109</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>isophonics_233</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.07900136798905609</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:maj', 'A:maj']]</t>
+          <t>[['D:min', 'A:7/E', 'D:min']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(46.99, 49.5)]</t>
+          <t>[['D:min', 'A:7', 'D:min']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(8.34, 15.04)]</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
+          <t>[('0:00:01.540000', '0:00:06.880000')]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[('0:00:36.711000', '0:00:39.787000')]</t>
+        </is>
+      </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>isophonics_151</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>isophonics_135</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.1652173913043478</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['Bb', 'F', 'Bb'], ['F', 'Ab', 'Bb'], ['F', 'Bb', 'F']]</t>
-        </is>
+          <t>schubert-winterreise_63</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_6</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.06346153846153846</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['A', 'E', 'A'], ['E', 'G', 'A'], ['E', 'A', 'E']]</t>
+          <t>[['A#:7', 'D#', 'C:min'], ['C:min/G', 'G', 'C:min'], ['C:min/G', 'G:7', 'C:min'], ['D#/G', 'A#:7/F', 'D#/G'], ['C:min', 'F:min', 'C:min/G']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(22.564557, 26.651269), (20.532811, 23.586235), (23.586235, 28.578526)]</t>
+          <t>[['A:7', 'D:maj', 'B:min'], ['B:min', 'F#:maj', 'B:min'], ['B:min/F#', 'F#:7', 'B:min'], ['D:maj/F#', 'A:7', 'D:maj'], ['B:min', 'E:min/B', 'B:min']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(17.886772, 23.088042), (11.872804, 13.8465), (7.646772, 12.917702)]</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
+          <t>[('0:00:38.620000', '0:00:40.980000'), ('0:00:14.620000', '0:00:19.560000'), ('0:00:25.800000', '0:00:29.460000'), ('0:00:43.320000', '0:00:45.080000'), ('0:00:09.600000', '0:00:13.300000')]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[('0:00:39.300000', '0:00:45.380000'), ('0:00:13.980000', '0:00:21.500000'), ('0:01:19.420000', '0:01:26.020000'), ('0:00:37.540000', '0:00:42.720000'), ('0:00:27.360000', '0:00:34.920000')]</t>
+        </is>
+      </c>
       <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_54</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_205</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.07480106100795755</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['G:min', 'D:7/G', 'G:min']]</t>
-        </is>
+          <t>jaah_39</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>isophonics_160</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.09636277751535191</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['Ab', 'Bb:7', 'Eb:7', 'Ab']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(18.42, 24.34)]</t>
+          <t>[['Ab:maj', 'Bb:7', 'Eb:7', 'Ab:maj']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(41.58, 43.48)]</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:02:10.090000', '0:02:13.240000')]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[('0:02:06.605000', '0:02:10.738000')]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>jaah_72</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>isophonics_181</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.07054054054054054</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['Eb', 'Eb', 'Eb']]</t>
-        </is>
+          <t>isophonics_216</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>isophonics_136</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.08497246262785207</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['Bb', 'Bb', 'Bb']]</t>
+          <t>[['E', 'A', 'D'], ['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(8.7, 12.06)]</t>
+          <t>[['E/3', 'A', 'D'], ['A', 'D/5', 'A']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(0.440395, 6.879478)]</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
+          <t>[('0:00:25.850181', '0:00:31.898979'), ('0:00:28.009637', '0:00:33.826235')]</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[('0:01:35.673000', '0:01:39.127000'), ('0:00:00.939000', '0:00:03.682000')]</t>
+        </is>
+      </c>
       <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_73</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_136</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.3809523809523809</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['C:maj', 'G:maj/D', 'D:7', 'G:maj']]</t>
-        </is>
+          <t>schubert-winterreise_119</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_13</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.3819444444444445</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['A#:maj/D', 'F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>[['G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(66.06, 68.18)]</t>
+          <t>[['B:maj', 'F#:7', 'B:maj', 'F#:7', 'B:maj']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(77.68, 86.54)]</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
+          <t>[('0:00:07.600000', '0:00:23.340000')]</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[('0:00:00.320000', '0:00:10.960000')]</t>
+        </is>
+      </c>
       <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>isophonics_41</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_96</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.0992063492063492</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['G', 'C', 'F']]</t>
-        </is>
+          <t>schubert-winterreise_40</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_101</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.4375</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'C:maj/E', 'F:maj']]</t>
+          <t>[['D:min', 'A:(3,5,b7,b9)', 'D:min']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(56.279931, 60.633673)]</t>
+          <t>[['B:min', 'F#:(3,5,b7,b9)/B', 'B:min']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(200.52, 203.86)]</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
+          <t>[('0:01:43', '0:02:02.840000')]</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[('0:00:30.800000', '0:00:45.300000')]</t>
+        </is>
+      </c>
       <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_199</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_14</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.2976190476190476</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
-        </is>
+          <t>schubert-winterreise_114</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_111</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.4211538461538462</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>[['A:7', 'D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(62.2, 64.4)]</t>
+          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(83.34, 87.64)]</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
+          <t>[('0:00:18.160000', '0:00:47.440000')]</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[('0:01:06.100000', '0:01:24.780000')]</t>
+        </is>
+      </c>
       <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_3</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_153</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.2767857142857143</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['C#:maj', 'G#:7', 'C#:maj'], ['G#:7', 'C#:maj', 'C#:min']]</t>
-        </is>
+          <t>schubert-winterreise_36</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_200</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.4211538461538462</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj'], ['D:7', 'G:maj', 'G:min']]</t>
+          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(0.48, 8.48), (25.9, 35.06)]</t>
+          <t>[['B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(60.12, 61.36), (60.68, 63.42)]</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
+          <t>[('0:01:14.700000', '0:01:34.120000')]</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[('0:00:16.340000', '0:00:44.360000')]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>jaah_52</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>jaah_78</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.06117552978808476</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F', 'F']]</t>
-        </is>
+          <t>schubert-winterreise_212</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_81</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['F:7', 'Bb', 'Bb']]</t>
+          <t>[['A:(3,5,b7,b9)', 'D:min', 'F#:dim7'], ['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj'], ['G#:dim7', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(49.61, 55.16)]</t>
+          <t>[['A:(3,5,b7,b9)', 'D:min', 'F#:dim7'], ['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj'], ['G#:dim7', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(43.56, 48.1)]</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
+          <t>[('0:00:13.980000', '0:00:18.160000'), ('0:00:23.460000', '0:00:26.480000'), ('0:00:18.840000', '0:00:20.320000')]</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[('0:00:10.940000', '0:00:14.560000'), ('0:00:19.260000', '0:00:22.260000'), ('0:00:15.120000', '0:00:16.420000')]</t>
+        </is>
+      </c>
       <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_180</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_47</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.2598235765838011</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_206</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_189</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.7142857142857143</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
+          <t>[['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(132.8, 164.96)]</t>
+          <t>[['D#:maj/A#', 'A#:(3,5,b7,b9)', 'D#:maj']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(97.98, 122.64)]</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>[('0:00:22.600000', '0:00:25.720000')]</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[('0:00:53.160000', '0:00:55.820000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_170</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>jaah_29</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.0945054945054945</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:maj', 'G:maj']]</t>
-        </is>
+          <t>schubert-winterreise_15</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_169</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['Eb:7', 'Ab', 'Ab']]</t>
+          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min', 'C:maj/E', 'F:maj', 'G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(6.12, 11.62)]</t>
+          <t>[['G:min', 'C:min', 'G:min', 'D:7', 'G:min', 'A#:maj/D', 'D#:maj', 'F:7', 'A#:maj', 'G:min/D', 'D:7', 'G:min', 'G:min/D', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(33.92, 36.84)]</t>
+          <t>[('0:00:13.520000', '0:00:51.460000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr"/>
+          <t>[('0:00:14.520000', '0:00:59.040000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_84</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>jaah_70</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.1092241092241092</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['A#:7', 'D#:maj', 'D#:maj', 'D#:7']]</t>
-        </is>
+          <t>schubert-winterreise_119</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_126</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0.7083333333333333</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['Ab:7', 'Db', 'Db', 'Db:7']]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(64.58, 77.22)]</t>
+          <t>[['A:7', 'D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(56.02, 59.32)]</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
+          <t>[('0:00:34.300000', '0:00:49.840000')]</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[('0:00:17.560000', '0:00:47.240000')]</t>
+        </is>
+      </c>
       <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>isophonics_46</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_133</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.2548262548262548</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['D', 'G', 'D']]</t>
-        </is>
+          <t>schubert-winterreise_202</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_131</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>[['C#:(3,5)', 'F:maj/A', 'A#:maj', 'F:maj/C', 'C:7', 'F:maj', 'F:min']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(28.921995, 33.101587)]</t>
+          <t>[['D#:(3,5)', 'G:maj/B', 'C:maj', 'G:maj/D', 'D:7', 'G:maj', 'G:min']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(61.6, 63.84)]</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
+          <t>[('0:01:00.620000', '0:01:06.360000')]</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[('0:01:00.320000', '0:01:06.700000')]</t>
+        </is>
+      </c>
       <c r="I16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_40</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_142</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.421195652173913</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['A:7/G', 'D:maj/F#', 'D:maj/A', 'A:7', 'D:maj/F#']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:maj', 'F:maj/A', 'C:7', 'F:maj']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(238.72, 254.26)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(17.9, 21.42)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
